--- a/Schema shop/shop logical design.xlsx
+++ b/Schema shop/shop logical design.xlsx
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="143">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,10 +835,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_seller_num</t>
-  </si>
-  <si>
-    <t>판매자정보</t>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default seller_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총회원수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 잘팔린 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지 가장 많이 팔린 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 판매수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 매출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -962,6 +1007,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1019,12 +1077,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,6 +1084,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1410,6 +1468,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1438,10 +1498,10 @@
       <c r="H4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="11" t="s">
         <v>126</v>
       </c>
       <c r="M4" s="1"/>
@@ -1472,10 +1532,10 @@
       <c r="H5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>125</v>
       </c>
       <c r="M5" s="1"/>
@@ -1506,10 +1566,10 @@
       <c r="H6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>122</v>
       </c>
       <c r="M6" s="1"/>
@@ -1526,13 +1586,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="L7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
@@ -1552,15 +1607,6 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>108</v>
-      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
@@ -1569,34 +1615,26 @@
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -1605,33 +1643,27 @@
       <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" t="s">
-        <v>130</v>
-      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>109</v>
+      <c r="I10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1641,22 +1673,28 @@
       <c r="B11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1665,10 +1703,20 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1871,10 +1919,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1885,6 +1933,9 @@
       </c>
       <c r="F22" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="H22" s="13"/>
       <c r="M22" s="1"/>
@@ -1893,20 +1944,23 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1919,10 +1973,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1934,6 +1988,10 @@
       <c r="F24" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="G24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1952,6 +2010,9 @@
       <c r="E25" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1963,13 +2024,16 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1981,12 +2045,14 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
@@ -2001,6 +2067,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2027,6 +2094,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2038,10 +2106,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -2056,6 +2124,7 @@
       <c r="G30" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2067,10 +2136,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -2085,6 +2154,7 @@
       <c r="G31" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2096,17 +2166,17 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>38</v>
@@ -2114,6 +2184,7 @@
       <c r="G32" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2125,9 +2196,14 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2140,9 +2216,14 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2155,9 +2236,15 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2169,6 +2256,13 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2189,6 +2283,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2212,6 +2308,8 @@
       <c r="E38" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2236,6 +2334,8 @@
       <c r="E39" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2248,7 +2348,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2260,6 +2360,9 @@
       <c r="E40" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2271,6 +2374,13 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2281,6 +2391,14 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2291,13 +2409,17 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2308,21 +2430,24 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
       <c r="B44" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2335,21 +2460,24 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2360,20 +2488,22 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2385,16 +2515,18 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2406,15 +2538,16 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2429,15 +2562,16 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2466,6 +2600,10 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="18"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2481,7 +2619,15 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="B52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2491,7 +2637,9 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2501,7 +2649,9 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2514,8 +2664,6 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2532,9 +2680,6 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2550,9 +2695,9 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="B57" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2568,9 +2713,15 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2586,9 +2737,9 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2604,9 +2755,9 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
